--- a/examples/sources/data/unsolved/to_schedule/2019-04-03.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-03.xlsx
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>43558</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43558</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>1</v>
